--- a/KB/Email-FAQ-fr.xlsx
+++ b/KB/Email-FAQ-fr.xlsx
@@ -128,19 +128,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Pourquoi est-ce que je reçois le message d'erreur "Le fichier n'a pas pu être soumis parce que des erreurs ont été trouvées" lorsque j'essaie de soumettre mon rapport mensuel dans SSCDL ?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Veuillez vous référer aux spécifications du fichier dans le guide de déclaration mensuelle ainsi qu'à l'outil de déclaration d'inventaire. Le présent outil a pour objet de fournir des conseils et une assistance supplémentaires pour la préparation des rapports mensuels à soumettre au Système de suivi du cannabis et de demandes de licences (SSCDL). Cet outil ne remplace pas ni ne se substitue au modèle.csv ci-dessus mais peut plutôt être utilisé pour remplir le fichier .csv.
-Le guide de déclaration et l'outil d'inventaire sont disponibles dans le lien ci-dessous:
-</t>
+      <t xml:space="preserve">Pourquoi est-ce que je reçois le message d'erreur "Le fichier n'a pas pu être soumis parce que des erreurs ont été trouvées" lorsque j'essaie de soumettre mon rapport mensuel dans SSCDL ? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Veuillez vous référer aux spécifications du fichier dans le guide de déclaration mensuelle ainsi qu'à l'outil de déclaration d'inventaire. Le présent outil a pour objet de fournir des conseils et une assistance supplémentaires pour la préparation des rapports mensuels à soumettre au Système de suivi du cannabis et de demandes de licences (SSCDL). Cet outil ne remplace pas ni ne se substitue au modèle.csv ci-dessus mais peut plutôt être utilisé pour remplir le fichier .csv. Le guide de déclaration et l'outil d'inventaire sont disponibles dans le lien ci-dessous: </t>
     </r>
     <r>
       <rPr>
@@ -150,7 +148,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">https://www.canada.ca/en/health-canada/services/drugs-medication/cannabis/tracking-system.html</t>
+      <t xml:space="preserve">https://www.canada.ca/en/health-canada/services/drugs-medication/cannabis/tracking-system.html
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
     </r>
   </si>
   <si>
@@ -190,7 +198,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Comment visualiser ou modifier un rapport une fois qu'il a été soumis dans SSCDL ?
+      <t xml:space="preserve">Comment visualiser ou modifier un rapport une fois qu'il a été soumis dans SSCDL ? 
 </t>
     </r>
     <r>
@@ -219,8 +227,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">.
-Nous aimerions vous rappeler qu'il est de votre responsabilité de vous assurer de conserver une copie de vos soumissions mensuelles. </t>
+      <t xml:space="preserve">. Nous aimerions vous rappeler qu'il est de votre responsabilité de vous assurer de conserver une copie de vos soumissions mensuelles. </t>
     </r>
   </si>
   <si>
@@ -360,9 +367,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -371,12 +386,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -388,78 +403,78 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="156.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="128.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="84.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
     </row>

--- a/KB/Email-FAQ-fr.xlsx
+++ b/KB/Email-FAQ-fr.xlsx
@@ -39,7 +39,58 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Comment puis-je demander l'accès au SSCDL ?
+      <t xml:space="preserve">Comment puis-je demander l'accès au SSCDL ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Pour les titulaires d'une licence fédérale, veuillez communiquer avec l'équipe des licences de Santé Canada à l'adresse HC.licensing-cannabis-licences.SC@canada.ca.
+Si vous faites une déclaration au nom d'une province ou d'un territoire, veuillez communiquer avec hc.SSCDL-bi-sscdl-ie.sc@canada.ca.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi est-ce que je reçois le message d'erreur "Niveau d'assurance insuffisant" lorsque j'essaie de soumettre mon rapport mensuel dans SSCDL ?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Pourquoi est-ce que je reçois le message d'erreur "Niveau d'assurance insuffisant" lorsque j'essaie de soumettre mon rapport mensuel dans SSCDL ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+En raison de la politique gouvernementale sur la sécurité des TI et de la conception du système de TI, pour les titulaires de permis fédéraux, seule la personne responsable associée à un permis est autorisée à présenter des rapports mensuels par l'entremise du portail du Système de suivi du cannabis et de demandes de licences. La personne responsable se voit accorder le niveau d'assurance 3 et est en mesure de soumettre des rapports dans SSCDL. On envisage d'accorder cette fonction à d'autres membres du personnel ayant une habilitation de sécurité. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Pourquoi est-ce que je reçois le message d'erreur "Le fichier n'a pas pu être soumis parce que des erreurs ont été trouvées" lorsque j'essaie de soumettre mon rapport mensuel dans SSCDL ?"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Pourquoi est-ce que je reçois le message d'erreur "Le fichier n'a pas pu être soumis parce que des erreurs ont été trouvées" lorsque j'essaie de soumettre mon rapport mensuel dans SSCDL ?  
 </t>
     </r>
     <r>
@@ -49,116 +100,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Pour les titulaires d'une licence fédérale, veuillez communiquer avec l'équipe des licences de Santé Canada à l'adresse </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">HC.licensing-cannabis-licences.SC@canada.ca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.
-Si vous faites une déclaration au nom d'une province ou d'un territoire, veuillez communiquer avec </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hc.SSCDL-bi-sscdl-ie.sc@canada.ca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Pourquoi est-ce que je reçois le message d'erreur "Niveau d'assurance insuffisant" lorsque j'essaie de soumettre mon rapport mensuel dans SSCDL ?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Pourquoi est-ce que je reçois le message d'erreur "Niveau d'assurance insuffisant" lorsque j'essaie de soumettre mon rapport mensuel dans SSCDL ?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">En raison de la politique gouvernementale sur la sécurité des TI et de la conception du système de TI, pour les titulaires de permis fédéraux, seule la personne responsable associée à un permis est autorisée à présenter des rapports mensuels par l'entremise du portail du Système de suivi du cannabis et de demandes de licences. La personne responsable se voit accorder le niveau d'assurance 3 et est en mesure de soumettre des rapports dans SSCDL. On envisage d'accorder cette fonction à d'autres membres du personnel ayant une habilitation de sécurité. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Pourquoi est-ce que je reçois le message d'erreur "Le fichier n'a pas pu être soumis parce que des erreurs ont été trouvées" lorsque j'essaie de soumettre mon rapport mensuel dans SSCDL ?"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Pourquoi est-ce que je reçois le message d'erreur "Le fichier n'a pas pu être soumis parce que des erreurs ont été trouvées" lorsque j'essaie de soumettre mon rapport mensuel dans SSCDL ? 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Veuillez vous référer aux spécifications du fichier dans le guide de déclaration mensuelle ainsi qu'à l'outil de déclaration d'inventaire. Le présent outil a pour objet de fournir des conseils et une assistance supplémentaires pour la préparation des rapports mensuels à soumettre au Système de suivi du cannabis et de demandes de licences (SSCDL). Cet outil ne remplace pas ni ne se substitue au modèle.csv ci-dessus mais peut plutôt être utilisé pour remplir le fichier .csv. Le guide de déclaration et l'outil d'inventaire sont disponibles dans le lien ci-dessous: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">https://www.canada.ca/en/health-canada/services/drugs-medication/cannabis/tracking-system.html
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">.</t>
+      <t xml:space="preserve">Veuillez vous référer aux spécifications du fichier dans le guide de déclaration mensuelle ainsi qu'à l'outil de déclaration d'inventaire. Le présent outil a pour objet de fournir des conseils et une assistance supplémentaires pour la préparation des rapports mensuels à soumettre au Système de suivi du cannabis et de demandes de licences (SSCDL). Cet outil ne remplace pas ni ne se substitue au modèle.csv ci-dessus mais peut plutôt être utilisé pour remplir le fichier .csv. Le guide de déclaration et l'outil d'inventaire sont disponibles dans le lien ci-dessous: https://www.canada.ca/en/health-canada/services/drugs-medication/cannabis/tracking-system.html .</t>
     </r>
   </si>
   <si>
@@ -173,17 +115,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Pourquoi est-ce que je reçois le message d'erreur "Un rapport existe déjà pour cette période de rapport" lorsque j'essaie de soumettre mon rapport mensuel dans SSCDL ?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Veuillez vous assurer que vous utilisez le bon mois de la période de déclaration dans votre rapport mensuel. Veuillez également vérifier que vous n'avez pas de rapport manuel en mode brouillon. Le SSCDL ne vous permettra pas de télécharger un fichier csv si vous avez une entrée manuelle en mode brouillon. </t>
+      <t xml:space="preserve">Pourquoi est-ce que je reçois le message d'erreur "Un rapport existe déjà pour cette période de rapport" lorsque j'essaie de soumettre mon rapport mensuel dans SSCDL ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Veuillez vous assurer que vous utilisez le bon mois de la période de déclaration dans votre rapport mensuel. Veuillez également vérifier que vous n'avez pas de rapport manuel en mode brouillon. Le SSCDL ne vous permettra pas de télécharger un fichier csv si vous avez une entrée manuelle en mode brouillon. </t>
     </r>
   </si>
   <si>
@@ -198,36 +140,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Comment visualiser ou modifier un rapport une fois qu'il a été soumis dans SSCDL ? 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Une fois qu'un rapport a été soumis avec succès, il ne peut plus être rouvert pour être édité. Si une correction à un rapport déjà soumis est requise, envoyez une demande à </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">hc.SSCDL-bi-sscdl-ie.sc@canada.ca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">. Nous aimerions vous rappeler qu'il est de votre responsabilité de vous assurer de conserver une copie de vos soumissions mensuelles. </t>
+      <t xml:space="preserve">Comment visualiser ou modifier un rapport une fois qu'il a été soumis dans SSCDL ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Une fois qu'un rapport a été soumis avec succès, il ne peut plus être rouvert pour être édité. Si une correction à un rapport déjà soumis est requise, envoyez une demande à hc.SSCDL-bi-sscdl-ie.sc@canada.ca. Nous aimerions vous rappeler qu'il est de votre responsabilité de vous assurer de conserver une copie de vos soumissions mensuelles. </t>
     </r>
   </si>
   <si>
@@ -242,17 +165,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Pouvez-vous expliquer la différence entre le stock non fini et le stock fini (non emballé et emballé) ?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">L'inventaire non fini (non emballé) est le cannabis qui est enregistré pendant la phase de croissance et de transformation. Dans cette catégorie, vous capturerez tous les changements (ouverture, ajouts et réductions d'inventaire) durant le processus de croissance et de traitement. Par exemple, lorsque vous transformez du cannabis frais en cannabis séché. Toutes les catégories devraient s'équilibrer et ne pas avoir un stock de fermeture calculé négatif. Un stock fini (emballé) est un produit de cannabis qui est emballé et prêt à la vente. Dans cette catégorie, vous capturerez tous les changements (ouverture, ajouts et réductions d'inventaire) pour les produits emballés. Tous les produits de cette catégorie doivent déjà être emballés avant d'être inscrits dans cette section. </t>
+      <t xml:space="preserve">Pouvez-vous expliquer la différence entre le stock non fini et le stock fini (non emballé et emballé) ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+L'inventaire non fini (non emballé) est le cannabis qui est enregistré pendant la phase de croissance et de transformation. Dans cette catégorie, vous capturerez tous les changements (ouverture, ajouts et réductions d'inventaire) durant le processus de croissance et de traitement. Par exemple, lorsque vous transformez du cannabis frais en cannabis séché. Toutes les catégories devraient s'équilibrer et ne pas avoir un stock de fermeture calculé négatif. Un stock fini (emballé) est un produit de cannabis qui est emballé et prêt à la vente. Dans cette catégorie, vous capturerez tous les changements (ouverture, ajouts et réductions d'inventaire) pour les produits emballés. Tous les produits de cette catégorie doivent déjà être emballés avant d'être inscrits dans cette section. </t>
     </r>
   </si>
   <si>
@@ -267,17 +190,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Qu'est-ce que j'enregistre dans la section Ventes ?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Veuillez consigner le produit de cannabis qui est vendu soit aux consommateurs à des fins médicales, soit au réseau de distribution dans les provinces. Cette catégorie s'applique à tous les produits qui sont expédiés pour la vente aux consommateurs ou aux distributeurs provinciaux. Veuillez consigner toutes les ventes médicales aux consommateurs et les ventes aux réseaux de distribution des provinces. </t>
+      <t xml:space="preserve">Qu'est-ce que j'enregistre dans la section Ventes ?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Veuillez consigner le produit de cannabis qui est vendu soit aux consommateurs à des fins médicales, soit au réseau de distribution dans les provinces. Cette catégorie s'applique à tous les produits qui sont expédiés pour la vente aux consommateurs ou aux distributeurs provinciaux. Veuillez consigner toutes les ventes médicales aux consommateurs et les ventes aux réseaux de distribution des provinces. </t>
     </r>
   </si>
 </sst>
@@ -288,7 +211,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -313,13 +236,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -367,17 +283,9 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -404,85 +312,81 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="60.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="84.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="84.48"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="114" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://www.canada.ca/en/health-canada/services/drugs-medication/cannabis/tracking-system.html"/>
-    <hyperlink ref="B6" r:id="rId2" display="hc.SSCDL-bi-sscdl-ie.sc@canada.ca"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
